--- a/single_cycle/design/instructions.xlsx
+++ b/single_cycle/design/instructions.xlsx
@@ -942,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1693,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="7">
         <v>0</v>
@@ -1740,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="7">
         <v>0</v>
@@ -1787,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="7">
         <v>0</v>

--- a/single_cycle/design/instructions.xlsx
+++ b/single_cycle/design/instructions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="118">
   <si>
     <t>instruction</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -465,6 +465,14 @@
   </si>
   <si>
     <t>11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -606,9 +614,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -658,6 +663,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -942,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -953,27 +961,27 @@
     <col min="3" max="3" width="8.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.75" style="1" customWidth="1"/>
     <col min="5" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="9" style="10"/>
-    <col min="15" max="15" width="9" style="9"/>
+    <col min="14" max="14" width="9" style="9"/>
+    <col min="15" max="15" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="27">
       <c r="A2" s="1" t="s">
@@ -1015,10 +1023,10 @@
       <c r="M2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1059,10 +1067,10 @@
       <c r="M3" s="1">
         <v>0</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="11" t="s">
         <v>103</v>
       </c>
       <c r="P3" s="1"/>
@@ -1104,10 +1112,10 @@
       <c r="M4" s="1">
         <v>0</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="11" t="s">
         <v>104</v>
       </c>
       <c r="P4" s="1"/>
@@ -1149,198 +1157,198 @@
       <c r="M5" s="1">
         <v>1</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="11" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="8" customFormat="1">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:16" s="7" customFormat="1">
+      <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="7">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="N6" s="13" t="s">
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="O6" s="14" t="s">
+      <c r="O6" s="13" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="8" customFormat="1">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:16" s="7" customFormat="1">
+      <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="6">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7" t="s">
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="N7" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="O7" s="13" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="8" customFormat="1">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:16" s="7" customFormat="1">
+      <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="7">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="6">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>1</v>
-      </c>
-      <c r="F8" s="7">
-        <v>1</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M8" s="7" t="s">
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="N8" s="13" t="s">
+      <c r="N8" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="O8" s="14" t="s">
+      <c r="O8" s="13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="8" customFormat="1">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:16" s="7" customFormat="1">
+      <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="7">
-        <v>0</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="6">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="7">
-        <v>0</v>
-      </c>
-      <c r="E9" s="7">
-        <v>1</v>
-      </c>
-      <c r="F9" s="7">
-        <v>1</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
-        <v>0</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="N9" s="13" t="s">
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="N9" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="O9" s="14" t="s">
+      <c r="O9" s="13" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1381,10 +1389,10 @@
       <c r="M10" s="1">
         <v>0</v>
       </c>
-      <c r="N10" s="17" t="s">
+      <c r="N10" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="O10" s="18" t="s">
+      <c r="O10" s="17" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1425,198 +1433,198 @@
       <c r="M11" s="1">
         <v>0</v>
       </c>
-      <c r="N11" s="17" t="s">
+      <c r="N11" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="O11" s="18" t="s">
+      <c r="O11" s="17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="8" customFormat="1">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:16" s="7" customFormat="1">
+      <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="7">
-        <v>0</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="6">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7">
-        <v>1</v>
-      </c>
-      <c r="F12" s="7">
-        <v>1</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7">
-        <v>0</v>
-      </c>
-      <c r="K12" s="7">
-        <v>0</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="N12" s="13" t="s">
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="N12" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="O12" s="14" t="s">
+      <c r="O12" s="13" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="8" customFormat="1">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:16" s="7" customFormat="1">
+      <c r="A13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="7">
-        <v>0</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="6">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
-      <c r="E13" s="7">
-        <v>1</v>
-      </c>
-      <c r="F13" s="7">
-        <v>1</v>
-      </c>
-      <c r="G13" s="7">
-        <v>0</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7">
-        <v>0</v>
-      </c>
-      <c r="K13" s="7">
-        <v>0</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M13" s="7" t="s">
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M13" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="N13" s="13" t="s">
+      <c r="N13" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="O13" s="14" t="s">
+      <c r="O13" s="13" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="8" customFormat="1">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:16" s="7" customFormat="1">
+      <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="7">
-        <v>0</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="6">
+        <v>0</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7">
-        <v>1</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7">
-        <v>0</v>
-      </c>
-      <c r="K14" s="7">
-        <v>0</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M14" s="7" t="s">
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M14" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="N14" s="13" t="s">
+      <c r="N14" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="O14" s="14" t="s">
+      <c r="O14" s="13" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="8" customFormat="1">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:16" s="7" customFormat="1">
+      <c r="A15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="7">
-        <v>0</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="6">
+        <v>0</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="7">
-        <v>0</v>
-      </c>
-      <c r="E15" s="7">
-        <v>1</v>
-      </c>
-      <c r="F15" s="7">
-        <v>1</v>
-      </c>
-      <c r="G15" s="7">
-        <v>0</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7">
-        <v>0</v>
-      </c>
-      <c r="K15" s="7">
-        <v>0</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M15" s="7" t="s">
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0</v>
+      </c>
+      <c r="K15" s="6">
+        <v>0</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M15" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="N15" s="13" t="s">
+      <c r="N15" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="O15" s="14" t="s">
+      <c r="O15" s="13" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1657,198 +1665,198 @@
       <c r="M16" s="1">
         <v>0</v>
       </c>
-      <c r="N16" s="10" t="s">
+      <c r="N16" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="O16" s="9" t="s">
+      <c r="O16" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="8" customFormat="1">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:15" s="7" customFormat="1">
+      <c r="A17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="7">
-        <v>0</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="6">
+        <v>0</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1</v>
-      </c>
-      <c r="F17" s="7">
-        <v>1</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7">
-        <v>1</v>
-      </c>
-      <c r="K17" s="7">
-        <v>0</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6">
+        <v>1</v>
+      </c>
+      <c r="K17" s="6">
+        <v>0</v>
+      </c>
+      <c r="L17" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="M17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="N17" s="13" t="s">
+      <c r="M17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="N17" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="O17" s="14" t="s">
+      <c r="O17" s="13" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="8" customFormat="1">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:15" s="7" customFormat="1">
+      <c r="A18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="7">
-        <v>0</v>
-      </c>
-      <c r="C18" s="7" t="s">
+      <c r="B18" s="6">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="7">
-        <v>0</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1</v>
-      </c>
-      <c r="F18" s="7">
-        <v>1</v>
-      </c>
-      <c r="G18" s="7">
-        <v>0</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7">
-        <v>1</v>
-      </c>
-      <c r="K18" s="7">
-        <v>0</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="N18" s="13" t="s">
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
+        <v>1</v>
+      </c>
+      <c r="K18" s="6">
+        <v>0</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="N18" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="O18" s="14" t="s">
+      <c r="O18" s="13" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="8" customFormat="1">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:15" s="7" customFormat="1">
+      <c r="A19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="7">
-        <v>0</v>
-      </c>
-      <c r="C19" s="7" t="s">
+      <c r="B19" s="6">
+        <v>0</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1</v>
-      </c>
-      <c r="F19" s="7">
-        <v>1</v>
-      </c>
-      <c r="G19" s="7">
-        <v>0</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7">
-        <v>1</v>
-      </c>
-      <c r="K19" s="7">
-        <v>0</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6">
+        <v>1</v>
+      </c>
+      <c r="K19" s="6">
+        <v>0</v>
+      </c>
+      <c r="L19" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="M19" s="7" t="s">
+      <c r="M19" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="N19" s="13" t="s">
+      <c r="N19" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="O19" s="14" t="s">
+      <c r="O19" s="13" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="8" customFormat="1">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:15" s="7" customFormat="1">
+      <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="7">
-        <v>0</v>
-      </c>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="6">
+        <v>0</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1</v>
-      </c>
-      <c r="F20" s="7">
-        <v>1</v>
-      </c>
-      <c r="G20" s="7">
-        <v>0</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7">
-        <v>0</v>
-      </c>
-      <c r="K20" s="7">
-        <v>0</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M20" s="7" t="s">
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M20" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="N20" s="13" t="s">
+      <c r="N20" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="O20" s="14" t="s">
+      <c r="O20" s="13" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1889,10 +1897,10 @@
       <c r="M21" s="1">
         <v>0</v>
       </c>
-      <c r="N21" s="10" t="s">
+      <c r="N21" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="O21" s="9" t="s">
+      <c r="O21" s="8" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1933,10 +1941,10 @@
       <c r="M22" s="1">
         <v>0</v>
       </c>
-      <c r="N22" s="10" t="s">
+      <c r="N22" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="O22" s="9" t="s">
+      <c r="O22" s="8" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1977,10 +1985,10 @@
       <c r="M23" s="1">
         <v>0</v>
       </c>
-      <c r="N23" s="19" t="s">
+      <c r="N23" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="O23" s="20" t="s">
+      <c r="O23" s="19" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2021,10 +2029,10 @@
       <c r="M24" s="1">
         <v>0</v>
       </c>
-      <c r="N24" s="10" t="s">
+      <c r="N24" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="O24" s="9" t="s">
+      <c r="O24" s="8" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2065,10 +2073,10 @@
       <c r="M25" s="1">
         <v>0</v>
       </c>
-      <c r="N25" s="10" t="s">
+      <c r="N25" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="O25" s="9" t="s">
+      <c r="O25" s="8" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2109,10 +2117,10 @@
       <c r="M26" s="1">
         <v>0</v>
       </c>
-      <c r="N26" s="10" t="s">
+      <c r="N26" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="O26" s="9" t="s">
+      <c r="O26" s="8" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2153,10 +2161,10 @@
       <c r="M27" s="1">
         <v>0</v>
       </c>
-      <c r="N27" s="10" t="s">
+      <c r="N27" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="O27" s="9" t="s">
+      <c r="O27" s="8" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2197,10 +2205,10 @@
       <c r="M28" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="N28" s="10" t="s">
+      <c r="N28" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="O28" s="9" t="s">
+      <c r="O28" s="8" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2241,135 +2249,135 @@
       <c r="M29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="N29" s="10" t="s">
+      <c r="N29" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="O29" s="9" t="s">
+      <c r="O29" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="8" customFormat="1">
-      <c r="A30" s="7" t="s">
+    <row r="30" spans="1:15" s="7" customFormat="1">
+      <c r="A30" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="7">
-        <v>0</v>
-      </c>
-      <c r="C30" s="7" t="s">
+      <c r="B30" s="6">
+        <v>0</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="6">
         <v>3</v>
       </c>
-      <c r="E30" s="7">
-        <v>0</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G30" s="7">
-        <v>0</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L30" s="7" t="s">
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="L30" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="M30" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="N30" s="13" t="s">
+      <c r="M30" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="N30" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="O30" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" s="8" customFormat="1">
-      <c r="A31" s="7" t="s">
+      <c r="O30" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="7" customFormat="1">
+      <c r="A31" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="7">
-        <v>0</v>
-      </c>
-      <c r="C31" s="7" t="s">
+      <c r="B31" s="6">
+        <v>0</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="6">
         <v>3</v>
       </c>
-      <c r="E31" s="7">
-        <v>1</v>
-      </c>
-      <c r="F31" s="7">
-        <v>1</v>
-      </c>
-      <c r="G31" s="7">
-        <v>0</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
+      <c r="E31" s="6">
+        <v>1</v>
+      </c>
+      <c r="F31" s="6">
+        <v>1</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0</v>
+      </c>
+      <c r="H31" s="6">
+        <v>0</v>
+      </c>
+      <c r="I31" s="6">
         <v>2</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="J31" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="K31" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="L31" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M31" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="N31" s="13" t="s">
+      <c r="L31" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="N31" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="O31" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" s="6" customFormat="1">
-      <c r="A32" s="4" t="s">
+      <c r="O31" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" s="5" customFormat="1">
+      <c r="A32" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5">
-        <v>1</v>
-      </c>
-      <c r="F32" s="5">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4">
+        <v>1</v>
+      </c>
+      <c r="F32" s="4">
         <v>3</v>
       </c>
-      <c r="G32" s="5">
-        <v>0</v>
-      </c>
-      <c r="H32" s="5">
-        <v>0</v>
-      </c>
-      <c r="I32" s="5">
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4">
         <v>2</v>
       </c>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="16"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/single_cycle/design/instructions.xlsx
+++ b/single_cycle/design/instructions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="122">
   <si>
     <t>instruction</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -473,6 +473,22 @@
   </si>
   <si>
     <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ori</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -604,7 +620,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -667,6 +683,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -948,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1672,62 +1691,60 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="7" customFormat="1">
-      <c r="A17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="6">
-        <v>0</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0</v>
-      </c>
-      <c r="E17" s="6">
-        <v>1</v>
-      </c>
-      <c r="F17" s="6">
-        <v>1</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0</v>
-      </c>
-      <c r="H17" s="6">
-        <v>0</v>
-      </c>
-      <c r="I17" s="6">
-        <v>0</v>
-      </c>
-      <c r="J17" s="6">
-        <v>1</v>
-      </c>
-      <c r="K17" s="6">
-        <v>0</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="N17" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="O17" s="13" t="s">
-        <v>108</v>
+    <row r="17" spans="1:15" s="21" customFormat="1">
+      <c r="A17" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14">
+        <v>0</v>
+      </c>
+      <c r="E17" s="14">
+        <v>1</v>
+      </c>
+      <c r="F17" s="14">
+        <v>0</v>
+      </c>
+      <c r="G17" s="14">
+        <v>0</v>
+      </c>
+      <c r="H17" s="14">
+        <v>0</v>
+      </c>
+      <c r="I17" s="14">
+        <v>0</v>
+      </c>
+      <c r="J17" s="14">
+        <v>0</v>
+      </c>
+      <c r="K17" s="14">
+        <v>1</v>
+      </c>
+      <c r="L17" s="14">
+        <v>0</v>
+      </c>
+      <c r="M17" s="14">
+        <v>0</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="7" customFormat="1">
       <c r="A18" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="6">
         <v>0</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D18" s="6">
         <v>0</v>
@@ -1754,27 +1771,27 @@
         <v>0</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M18" s="6" t="s">
         <v>69</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O18" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="7" customFormat="1">
       <c r="A19" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="6">
         <v>0</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D19" s="6">
         <v>0</v>
@@ -1801,27 +1818,27 @@
         <v>0</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O19" s="13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="7" customFormat="1">
       <c r="A20" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="6">
         <v>0</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D20" s="6">
         <v>0</v>
@@ -1842,74 +1859,77 @@
         <v>0</v>
       </c>
       <c r="J20" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="6">
         <v>0</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O20" s="13" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0</v>
-      </c>
-      <c r="K21" s="1">
-        <v>1</v>
-      </c>
-      <c r="L21" s="1">
-        <v>1</v>
-      </c>
-      <c r="M21" s="1">
-        <v>0</v>
-      </c>
-      <c r="N21" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="O21" s="8" t="s">
-        <v>109</v>
+    <row r="21" spans="1:15" s="7" customFormat="1">
+      <c r="A21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0</v>
+      </c>
+      <c r="K21" s="6">
+        <v>0</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="O21" s="13" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -1936,7 +1956,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -1945,24 +1965,24 @@
         <v>95</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>69</v>
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -1970,34 +1990,34 @@
       <c r="H23" s="1">
         <v>0</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>72</v>
+      <c r="I23" s="1">
+        <v>0</v>
       </c>
       <c r="J23" s="1">
         <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
       </c>
-      <c r="N23" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="O23" s="19" t="s">
-        <v>113</v>
+      <c r="N23" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
@@ -2029,19 +2049,19 @@
       <c r="M24" s="1">
         <v>0</v>
       </c>
-      <c r="N24" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="O24" s="8" t="s">
-        <v>111</v>
+      <c r="N24" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="O24" s="19" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
@@ -2074,18 +2094,18 @@
         <v>0</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
@@ -2118,18 +2138,18 @@
         <v>0</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
@@ -2162,27 +2182,27 @@
         <v>0</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
@@ -2193,40 +2213,40 @@
       <c r="I28" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>69</v>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D29" s="1">
         <v>2</v>
       </c>
       <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
@@ -2234,17 +2254,17 @@
       <c r="H29" s="1">
         <v>0</v>
       </c>
-      <c r="I29" s="1">
-        <v>2</v>
+      <c r="I29" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>69</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>69</v>
@@ -2253,74 +2273,71 @@
         <v>101</v>
       </c>
       <c r="O29" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>2</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N30" s="9" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" s="7" customFormat="1">
-      <c r="A30" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="6">
-        <v>0</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="6">
-        <v>3</v>
-      </c>
-      <c r="E30" s="6">
-        <v>0</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G30" s="6">
-        <v>0</v>
-      </c>
-      <c r="H30" s="6">
-        <v>0</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="N30" s="12" t="s">
+      <c r="O30" s="8" t="s">
         <v>101</v>
-      </c>
-      <c r="O30" s="13" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:15" s="7" customFormat="1">
       <c r="A31" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="6">
         <v>0</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D31" s="6">
         <v>3</v>
       </c>
       <c r="E31" s="6">
-        <v>1</v>
-      </c>
-      <c r="F31" s="6">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="G31" s="6">
         <v>0</v>
@@ -2328,17 +2345,17 @@
       <c r="H31" s="6">
         <v>0</v>
       </c>
-      <c r="I31" s="6">
-        <v>2</v>
+      <c r="I31" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M31" s="6" t="s">
         <v>69</v>
@@ -2347,37 +2364,84 @@
         <v>101</v>
       </c>
       <c r="O31" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" s="7" customFormat="1">
+      <c r="A32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="6">
+        <v>0</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="6">
+        <v>3</v>
+      </c>
+      <c r="E32" s="6">
+        <v>1</v>
+      </c>
+      <c r="F32" s="6">
+        <v>1</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0</v>
+      </c>
+      <c r="H32" s="6">
+        <v>0</v>
+      </c>
+      <c r="I32" s="6">
+        <v>2</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="N32" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="O32" s="13" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="5" customFormat="1">
-      <c r="A32" s="3" t="s">
+    <row r="33" spans="1:15" s="5" customFormat="1">
+      <c r="A33" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4">
-        <v>1</v>
-      </c>
-      <c r="F32" s="4">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4">
+        <v>1</v>
+      </c>
+      <c r="F33" s="4">
         <v>3</v>
       </c>
-      <c r="G32" s="4">
-        <v>0</v>
-      </c>
-      <c r="H32" s="4">
-        <v>0</v>
-      </c>
-      <c r="I32" s="4">
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4">
         <v>2</v>
       </c>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="15"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/single_cycle/design/instructions.xlsx
+++ b/single_cycle/design/instructions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="121">
   <si>
     <t>instruction</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -420,75 +420,71 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ori</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ori</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0d</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
+    <t>00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -681,11 +677,11 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -970,7 +966,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -985,22 +981,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="27">
       <c r="A2" s="1" t="s">
@@ -1090,7 +1086,7 @@
         <v>82</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="P3" s="1"/>
     </row>
@@ -1135,7 +1131,7 @@
         <v>83</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="P4" s="1"/>
     </row>
@@ -1180,7 +1176,7 @@
         <v>83</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="7" customFormat="1">
@@ -1227,7 +1223,7 @@
         <v>83</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="7" customFormat="1">
@@ -1274,7 +1270,7 @@
         <v>84</v>
       </c>
       <c r="O7" s="13" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="7" customFormat="1">
@@ -1321,7 +1317,7 @@
         <v>85</v>
       </c>
       <c r="O8" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="7" customFormat="1">
@@ -1368,7 +1364,7 @@
         <v>85</v>
       </c>
       <c r="O9" s="13" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1412,7 +1408,7 @@
         <v>83</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1456,7 +1452,7 @@
         <v>82</v>
       </c>
       <c r="O11" s="17" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="7" customFormat="1">
@@ -1503,7 +1499,7 @@
         <v>86</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="7" customFormat="1">
@@ -1550,7 +1546,7 @@
         <v>87</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="7" customFormat="1">
@@ -1597,7 +1593,7 @@
         <v>88</v>
       </c>
       <c r="O14" s="13" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="7" customFormat="1">
@@ -1644,7 +1640,7 @@
         <v>89</v>
       </c>
       <c r="O15" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1688,15 +1684,15 @@
         <v>90</v>
       </c>
       <c r="O16" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="20" customFormat="1">
+      <c r="A17" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="21" customFormat="1">
-      <c r="A17" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>119</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14">
@@ -1730,10 +1726,10 @@
         <v>0</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="7" customFormat="1">
@@ -1780,7 +1776,7 @@
         <v>91</v>
       </c>
       <c r="O18" s="13" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="7" customFormat="1">
@@ -1827,7 +1823,7 @@
         <v>92</v>
       </c>
       <c r="O19" s="13" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="7" customFormat="1">
@@ -1874,7 +1870,7 @@
         <v>93</v>
       </c>
       <c r="O20" s="13" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="7" customFormat="1">
@@ -1921,7 +1917,7 @@
         <v>94</v>
       </c>
       <c r="O21" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1965,7 +1961,7 @@
         <v>95</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -2009,7 +2005,7 @@
         <v>95</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -2053,7 +2049,7 @@
         <v>96</v>
       </c>
       <c r="O24" s="19" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -2097,7 +2093,7 @@
         <v>97</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -2141,7 +2137,7 @@
         <v>98</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -2185,7 +2181,7 @@
         <v>99</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2229,7 +2225,7 @@
         <v>100</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2364,7 +2360,7 @@
         <v>101</v>
       </c>
       <c r="O31" s="13" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="7" customFormat="1">
@@ -2411,7 +2407,7 @@
         <v>101</v>
       </c>
       <c r="O32" s="13" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:15" s="5" customFormat="1">
